--- a/biology/Médecine/Muscle_troisième_adducteur/Muscle_troisième_adducteur.xlsx
+++ b/biology/Médecine/Muscle_troisième_adducteur/Muscle_troisième_adducteur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Muscle_troisi%C3%A8me_adducteur</t>
+          <t>Muscle_troisième_adducteur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle troisième adducteur est un muscle du membre inférieur situé dans le plan profond de la loge fémorale médiale. 
 Il forme le bord médial du trigone fémoral.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Muscle_troisi%C3%A8me_adducteur</t>
+          <t>Muscle_troisième_adducteur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle troisième adducteur est un muscle épais et triangulaire la partie antéro-médiale de la cuisse. Il occupe toute sa hauteur. C'est le muscle adducteur le plus postérieur, le plus large et le plus étendu. Il relie l'os coxal au fémur par trois faisceaux : un faisceau supérieur, un faisceau moyen et un faisceau inférieur.
 Les faisceaux supérieur et moyen forme la portion latérale du muscle : le muscle grand adducteur.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Muscle_troisi%C3%A8me_adducteur</t>
+          <t>Muscle_troisième_adducteur</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,10 +561,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Faisceau supérieur et moyen
-Le faisceau supérieur et moyen  du muscle troisième adducteur se fixe sur la partie moyenne du bord inférieur de la branche ischio-pubienne par une lame aponévrotique.
-Faisceau inférieur
-Le faisceau inférieur du muscle troisième adducteur se fixe sur la partie la plus inférieure de la tubérosité ischiatique, en avant des muscles ischio-jambiers par un court tendon.
+          <t>Faisceau supérieur et moyen</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le faisceau supérieur et moyen  du muscle troisième adducteur se fixe sur la partie moyenne du bord inférieur de la branche ischio-pubienne par une lame aponévrotique.
 </t>
         </is>
       </c>
@@ -561,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Muscle_troisi%C3%A8me_adducteur</t>
+          <t>Muscle_troisième_adducteur</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,17 +593,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Trajet</t>
+          <t>Origine</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Faisceau supérieur
-Le faisceau supérieur se dirige en dehors presque horizontalement en avant du faisceau moyen, formant un corps triangulaire tordu sur lui-même.
-Faisceau moyen
-Le faisceau moyen descend en dehors, formant un corps triangulaire.
-Faisceau inférieur
-Le faisceau inférieur descend sensiblement à la verticale en arrière du faisceau moyen.
+          <t>Faisceau inférieur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le faisceau inférieur du muscle troisième adducteur se fixe sur la partie la plus inférieure de la tubérosité ischiatique, en avant des muscles ischio-jambiers par un court tendon.
 </t>
         </is>
       </c>
@@ -597,7 +615,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Muscle_troisi%C3%A8me_adducteur</t>
+          <t>Muscle_troisième_adducteur</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,18 +630,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Terminaison</t>
+          <t>Trajet</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Faisceau supérieur
-Le faisceau supérieur s’insère sur la partie postérieure du fémur entre les branches latérale et moyenne de la trifurcation supérieure de la ligne âpre.
-Faisceau moyen
-Le faisceau moyen s'insère par une lame tendineuse sur la partie du tiers moyen de la lèvre externe de la ligne âpre en dessous du faisceau supérieur. Son insertion sur la ligne âpre est interrompue par une série d'arcades fibreuses qui livrent passage aux différentes artères perforantes venant de l'artère profonde de la cuisse.
-Faisceau inférieur
-Le faisceau inférieur s'insère par un tendon individuel sur le tubercule adducteur au-dessus de l'épicondyle médial.
-Une arcade fibreuse relie la partie basse de l'insertion du faisceau moyen sur la ligne âpre à l'insertion du faisceau inférieur sur le tubercule adducteur. Cette arcade forme le hiatus adducteur qui laisse passer l'artère fémorale qui change alors de nom et devient artère poplitée.
+          <t>Faisceau supérieur</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le faisceau supérieur se dirige en dehors presque horizontalement en avant du faisceau moyen, formant un corps triangulaire tordu sur lui-même.
 </t>
         </is>
       </c>
@@ -634,7 +652,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Muscle_troisi%C3%A8me_adducteur</t>
+          <t>Muscle_troisième_adducteur</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -649,12 +667,18 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Innervation</t>
+          <t>Trajet</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il est innervé par la branche antérieure du nerf obturateur et par le nerf musculaire médial (une des branches terminales du nerf fémoral).
+          <t>Faisceau moyen</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le faisceau moyen descend en dehors, formant un corps triangulaire.
 </t>
         </is>
       </c>
@@ -665,7 +689,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Muscle_troisi%C3%A8me_adducteur</t>
+          <t>Muscle_troisième_adducteur</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -680,12 +704,18 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Vascularisation</t>
+          <t>Trajet</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il est vascularisé par l'artère obturatrice qui nait de l'artère iliaque interne.
+          <t>Faisceau inférieur</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le faisceau inférieur descend sensiblement à la verticale en arrière du faisceau moyen.
 </t>
         </is>
       </c>
@@ -696,7 +726,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Muscle_troisi%C3%A8me_adducteur</t>
+          <t>Muscle_troisième_adducteur</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -711,12 +741,18 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Action</t>
+          <t>Terminaison</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il est adducteur et rotateur interne (médial) de la cuisse.
+          <t>Faisceau supérieur</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le faisceau supérieur s’insère sur la partie postérieure du fémur entre les branches latérale et moyenne de la trifurcation supérieure de la ligne âpre.
 </t>
         </is>
       </c>
@@ -727,7 +763,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Muscle_troisi%C3%A8me_adducteur</t>
+          <t>Muscle_troisième_adducteur</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -742,10 +778,186 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>Terminaison</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Faisceau moyen</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le faisceau moyen s'insère par une lame tendineuse sur la partie du tiers moyen de la lèvre externe de la ligne âpre en dessous du faisceau supérieur. Son insertion sur la ligne âpre est interrompue par une série d'arcades fibreuses qui livrent passage aux différentes artères perforantes venant de l'artère profonde de la cuisse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Muscle_troisième_adducteur</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_troisi%C3%A8me_adducteur</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Terminaison</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Faisceau inférieur</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le faisceau inférieur s'insère par un tendon individuel sur le tubercule adducteur au-dessus de l'épicondyle médial.
+Une arcade fibreuse relie la partie basse de l'insertion du faisceau moyen sur la ligne âpre à l'insertion du faisceau inférieur sur le tubercule adducteur. Cette arcade forme le hiatus adducteur qui laisse passer l'artère fémorale qui change alors de nom et devient artère poplitée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Muscle_troisième_adducteur</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_troisi%C3%A8me_adducteur</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Innervation</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est innervé par la branche antérieure du nerf obturateur et par le nerf musculaire médial (une des branches terminales du nerf fémoral).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Muscle_troisième_adducteur</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_troisi%C3%A8me_adducteur</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Vascularisation</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est vascularisé par l'artère obturatrice qui nait de l'artère iliaque interne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Muscle_troisième_adducteur</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_troisi%C3%A8me_adducteur</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est adducteur et rotateur interne (médial) de la cuisse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Muscle_troisième_adducteur</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_troisi%C3%A8me_adducteur</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Muscles antagonistes</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t xml:space="preserve">Les muscles fessiers et le muscle pyramidal du bassin.
 </t>
